--- a/Content/Tractor_images/tractorimg.xlsx
+++ b/Content/Tractor_images/tractorimg.xlsx
@@ -14,21 +14,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
-  <si>
-    <t>Swaraj Tractors</t>
-  </si>
-  <si>
-    <t>843 XM</t>
-  </si>
-  <si>
-    <t>744 FE Potato Xpert</t>
-  </si>
-  <si>
-    <t>['843XMimg0-swaraj-843-xm-1694259447.png', '843XMimg1-843-xm-1631015368.png', '843XMimg2-upload-1631015368-0.png']</t>
-  </si>
-  <si>
-    <t>['744FEPotatoXpertimg0-744-fe-potato-xpert-1631014870.png', '744FEPotatoXpertimg1-upload-1631014871-0.png', '744FEPotatoXpertimg2-744-fe-potato-xpert-1631014870.png']</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+  <si>
+    <t>Sonalika Tractors</t>
+  </si>
+  <si>
+    <t>Sikander DI 35</t>
+  </si>
+  <si>
+    <t>DI 734 (S1)</t>
+  </si>
+  <si>
+    <t>DI 47 RX</t>
+  </si>
+  <si>
+    <t>Tiger DI 50 4WD</t>
+  </si>
+  <si>
+    <t>['SikanderDI35img0-35-di-sikander-1631525637.png', 'SikanderDI35img1-upload-1631525637-0.png', 'SikanderDI35img2-upload-1631525637-0.png']</t>
+  </si>
+  <si>
+    <t>['DI734(S1)img0-di-734-s1-1631528609.png', 'DI734(S1)img1-upload-1631528609-0.png', 'DI734(S1)img2-di-734-s1-1631528609.png']</t>
+  </si>
+  <si>
+    <t>['DI47RXimg0-di-47-rx-1631526733.png', 'DI47RXimg1-upload-1631526733-0.png', 'DI47RXimg2-upload-1631526733-0.png']</t>
+  </si>
+  <si>
+    <t>['TigerDI504WDimg0-sonalika-tiger-di-50-4wd-1696503646.png', 'TigerDI504WDimg1-sonalika-tiger-di-50-4wd-16965036460.png', 'TigerDI504WDimg2-sonalika-tiger-di-50-4wd-1696503646.png']</t>
   </si>
   <si>
     <t>Brand</t>
@@ -393,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -401,13 +413,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -418,7 +430,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -429,7 +441,29 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
         <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
